--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\OneDrive\바탕 화면\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4109F4D5-C9F5-4D86-BE3E-FEA2DF9C9C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE553F-0DFE-4C56-8A26-1253AC6DF621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FallCollection" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,6 +1112,23 @@
         <v>7000000</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1262</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE553F-0DFE-4C56-8A26-1253AC6DF621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964E50D-7051-4700-8F75-532486A93C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FallCollection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,7 +115,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지옥석</t>
+    <t>천계꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,13 +1068,13 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F31">
         <v>500000</v>
@@ -1095,7 +1103,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1112,7 +1120,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1127,6 +1135,32 @@
       </c>
       <c r="F34">
         <v>7000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>88</v>
+      </c>
+      <c r="C35">
+        <v>250</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>500000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4964E50D-7051-4700-8F75-532486A93C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C693A879-01BD-4C7A-8FC8-C10EA73F00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1068,7 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="D31">
         <v>1</v>

--- a/Assets/06.Table/FallCollection.xlsx
+++ b/Assets/06.Table/FallCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C693A879-01BD-4C7A-8FC8-C10EA73F00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76649E-E1DC-4150-9CFB-ED4B1D42ABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1068,7 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>88</v>
       </c>
       <c r="C35">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D35">
         <v>1</v>
